--- a/parameters/Local/CASJ-2020-Parameters.xlsx
+++ b/parameters/Local/CASJ-2020-Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/xdevelopment/birding/CBCPipeline/parameters/Local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/xdevelopment/birding/automatingcbc/parameters/Local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95694E6E-5078-5247-BBB6-EE814F6E4C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB70A4A-CA02-DC48-84D6-BEE91A45AEBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28940" yWindow="4540" windowWidth="27320" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>CountDate</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>CountWeekEnd</t>
+  </si>
+  <si>
+    <t>CircleName</t>
   </si>
 </sst>
 </file>
@@ -934,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1043,14 @@
         <v>44185</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
